--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Serpinf1-Plxdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Serpinf1-Plxdc2.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.026875</v>
+        <v>2.802375666666666</v>
       </c>
       <c r="H2">
-        <v>3.080625</v>
+        <v>8.407126999999999</v>
       </c>
       <c r="I2">
-        <v>0.001791230048025246</v>
+        <v>0.004883830317835578</v>
       </c>
       <c r="J2">
-        <v>0.001791230048025246</v>
+        <v>0.004883830317835578</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.173155666666666</v>
+        <v>1.275993666666667</v>
       </c>
       <c r="N2">
-        <v>3.519467</v>
+        <v>3.827981</v>
       </c>
       <c r="O2">
-        <v>0.01210289927455652</v>
+        <v>0.01190973809858134</v>
       </c>
       <c r="P2">
-        <v>0.01210289927455652</v>
+        <v>0.01190973809858134</v>
       </c>
       <c r="Q2">
-        <v>1.204684225208333</v>
+        <v>3.575813602287444</v>
       </c>
       <c r="R2">
-        <v>10.842158026875</v>
+        <v>32.18232242058699</v>
       </c>
       <c r="S2">
-        <v>2.167907684880859E-05</v>
+        <v>5.816514000333297E-05</v>
       </c>
       <c r="T2">
-        <v>2.16790768488086E-05</v>
+        <v>5.816514000333297E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.026875</v>
+        <v>2.802375666666666</v>
       </c>
       <c r="H3">
-        <v>3.080625</v>
+        <v>8.407126999999999</v>
       </c>
       <c r="I3">
-        <v>0.001791230048025246</v>
+        <v>0.004883830317835578</v>
       </c>
       <c r="J3">
-        <v>0.001791230048025246</v>
+        <v>0.004883830317835578</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>232.950485</v>
       </c>
       <c r="O3">
-        <v>0.8010804635798802</v>
+        <v>0.7247630712606724</v>
       </c>
       <c r="P3">
-        <v>0.8010804635798804</v>
+        <v>0.7247630712606724</v>
       </c>
       <c r="Q3">
-        <v>79.73700976145834</v>
+        <v>217.6049235673995</v>
       </c>
       <c r="R3">
-        <v>717.6330878531251</v>
+        <v>1958.444312106595</v>
       </c>
       <c r="S3">
-        <v>0.001434919397250275</v>
+        <v>0.003539619860670499</v>
       </c>
       <c r="T3">
-        <v>0.001434919397250276</v>
+        <v>0.003539619860670499</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.026875</v>
+        <v>2.802375666666666</v>
       </c>
       <c r="H4">
-        <v>3.080625</v>
+        <v>8.407126999999999</v>
       </c>
       <c r="I4">
-        <v>0.001791230048025246</v>
+        <v>0.004883830317835578</v>
       </c>
       <c r="J4">
-        <v>0.001791230048025246</v>
+        <v>0.004883830317835578</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.97997033333333</v>
+        <v>23.49767666666667</v>
       </c>
       <c r="N4">
-        <v>53.939911</v>
+        <v>70.49303</v>
       </c>
       <c r="O4">
-        <v>0.1854909592024995</v>
+        <v>0.2193201912641251</v>
       </c>
       <c r="P4">
-        <v>0.1854909592024996</v>
+        <v>0.2193201912641252</v>
       </c>
       <c r="Q4">
-        <v>18.46318203604166</v>
+        <v>65.84931731386777</v>
       </c>
       <c r="R4">
-        <v>166.168638324375</v>
+        <v>592.64385582481</v>
       </c>
       <c r="S4">
-        <v>0.0003322569797605421</v>
+        <v>0.001071122599409232</v>
       </c>
       <c r="T4">
-        <v>0.0003322569797605423</v>
+        <v>0.001071122599409232</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.026875</v>
+        <v>2.802375666666666</v>
       </c>
       <c r="H5">
-        <v>3.080625</v>
+        <v>8.407126999999999</v>
       </c>
       <c r="I5">
-        <v>0.001791230048025246</v>
+        <v>0.004883830317835578</v>
       </c>
       <c r="J5">
-        <v>0.001791230048025246</v>
+        <v>0.004883830317835578</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1285003333333333</v>
+        <v>4.714852</v>
       </c>
       <c r="N5">
-        <v>0.385501</v>
+        <v>14.144556</v>
       </c>
       <c r="O5">
-        <v>0.001325677943063769</v>
+        <v>0.04400699937662105</v>
       </c>
       <c r="P5">
-        <v>0.001325677943063769</v>
+        <v>0.04400699937662105</v>
       </c>
       <c r="Q5">
-        <v>0.1319537797916667</v>
+        <v>13.21278651673467</v>
       </c>
       <c r="R5">
-        <v>1.187584018125</v>
+        <v>118.915078650612</v>
       </c>
       <c r="S5">
-        <v>2.374594165620125E-06</v>
+        <v>0.0002149227177525133</v>
       </c>
       <c r="T5">
-        <v>2.374594165620125E-06</v>
+        <v>0.0002149227177525133</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>543.3469646666666</v>
+        <v>543.3469646666667</v>
       </c>
       <c r="H6">
         <v>1630.040894</v>
       </c>
       <c r="I6">
-        <v>0.9477876173967086</v>
+        <v>0.9469160079809679</v>
       </c>
       <c r="J6">
-        <v>0.9477876173967086</v>
+        <v>0.946916007980968</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.173155666666666</v>
+        <v>1.275993666666667</v>
       </c>
       <c r="N6">
-        <v>3.519467</v>
+        <v>3.827981</v>
       </c>
       <c r="O6">
-        <v>0.01210289927455652</v>
+        <v>0.01190973809858134</v>
       </c>
       <c r="P6">
-        <v>0.01210289927455652</v>
+        <v>0.01190973809858134</v>
       </c>
       <c r="Q6">
-        <v>637.4305705648329</v>
+        <v>693.3072857172239</v>
       </c>
       <c r="R6">
-        <v>5736.875135083497</v>
+        <v>6239.765571455015</v>
       </c>
       <c r="S6">
-        <v>0.01147097806702428</v>
+        <v>0.01127752165640748</v>
       </c>
       <c r="T6">
-        <v>0.01147097806702428</v>
+        <v>0.01127752165640748</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>543.3469646666666</v>
+        <v>543.3469646666667</v>
       </c>
       <c r="H7">
         <v>1630.040894</v>
       </c>
       <c r="I7">
-        <v>0.9477876173967086</v>
+        <v>0.9469160079809679</v>
       </c>
       <c r="J7">
-        <v>0.9477876173967086</v>
+        <v>0.946916007980968</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>232.950485</v>
       </c>
       <c r="O7">
-        <v>0.8010804635798802</v>
+        <v>0.7247630712606724</v>
       </c>
       <c r="P7">
-        <v>0.8010804635798804</v>
+        <v>0.7247630712606724</v>
       </c>
       <c r="Q7">
         <v>42190.97964745929</v>
@@ -883,10 +883,10 @@
         <v>379718.8168271336</v>
       </c>
       <c r="S7">
-        <v>0.7592541439194254</v>
+        <v>0.6862897541701817</v>
       </c>
       <c r="T7">
-        <v>0.7592541439194256</v>
+        <v>0.6862897541701818</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>543.3469646666666</v>
+        <v>543.3469646666667</v>
       </c>
       <c r="H8">
         <v>1630.040894</v>
       </c>
       <c r="I8">
-        <v>0.9477876173967086</v>
+        <v>0.9469160079809679</v>
       </c>
       <c r="J8">
-        <v>0.9477876173967086</v>
+        <v>0.946916007980968</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.97997033333333</v>
+        <v>23.49767666666667</v>
       </c>
       <c r="N8">
-        <v>53.939911</v>
+        <v>70.49303</v>
       </c>
       <c r="O8">
-        <v>0.1854909592024995</v>
+        <v>0.2193201912641251</v>
       </c>
       <c r="P8">
-        <v>0.1854909592024996</v>
+        <v>0.2193201912641252</v>
       </c>
       <c r="Q8">
-        <v>9769.362305413379</v>
+        <v>12767.39129355209</v>
       </c>
       <c r="R8">
-        <v>87924.26074872042</v>
+        <v>114906.5216419688</v>
       </c>
       <c r="S8">
-        <v>0.1758060342711671</v>
+        <v>0.2076777999814477</v>
       </c>
       <c r="T8">
-        <v>0.1758060342711671</v>
+        <v>0.2076777999814478</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>543.3469646666666</v>
+        <v>543.3469646666667</v>
       </c>
       <c r="H9">
         <v>1630.040894</v>
       </c>
       <c r="I9">
-        <v>0.9477876173967086</v>
+        <v>0.9469160079809679</v>
       </c>
       <c r="J9">
-        <v>0.9477876173967086</v>
+        <v>0.946916007980968</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1285003333333333</v>
+        <v>4.714852</v>
       </c>
       <c r="N9">
-        <v>0.385501</v>
+        <v>14.144556</v>
       </c>
       <c r="O9">
-        <v>0.001325677943063769</v>
+        <v>0.04400699937662105</v>
       </c>
       <c r="P9">
-        <v>0.001325677943063769</v>
+        <v>0.04400699937662105</v>
       </c>
       <c r="Q9">
-        <v>69.82026607532154</v>
+        <v>2561.800523052563</v>
       </c>
       <c r="R9">
-        <v>628.382394677894</v>
+        <v>23056.20470747307</v>
       </c>
       <c r="S9">
-        <v>0.001256461139091779</v>
+        <v>0.04167093217293095</v>
       </c>
       <c r="T9">
-        <v>0.001256461139091779</v>
+        <v>0.04167093217293096</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.91110566666667</v>
+        <v>25.919625</v>
       </c>
       <c r="H10">
-        <v>83.733317</v>
+        <v>77.758875</v>
       </c>
       <c r="I10">
-        <v>0.04868675461350316</v>
+        <v>0.04517133513098909</v>
       </c>
       <c r="J10">
-        <v>0.04868675461350316</v>
+        <v>0.0451713351309891</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.173155666666666</v>
+        <v>1.275993666666667</v>
       </c>
       <c r="N10">
-        <v>3.519467</v>
+        <v>3.827981</v>
       </c>
       <c r="O10">
-        <v>0.01210289927455652</v>
+        <v>0.01190973809858134</v>
       </c>
       <c r="P10">
-        <v>0.01210289927455652</v>
+        <v>0.01190973809858134</v>
       </c>
       <c r="Q10">
-        <v>32.74407177578211</v>
+        <v>33.073277342375</v>
       </c>
       <c r="R10">
-        <v>294.6966459820389</v>
+        <v>297.659496081375</v>
       </c>
       <c r="S10">
-        <v>0.0005892508870922788</v>
+        <v>0.0005379787709733264</v>
       </c>
       <c r="T10">
-        <v>0.0005892508870922789</v>
+        <v>0.0005379787709733265</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>27.91110566666667</v>
+        <v>25.919625</v>
       </c>
       <c r="H11">
-        <v>83.733317</v>
+        <v>77.758875</v>
       </c>
       <c r="I11">
-        <v>0.04868675461350316</v>
+        <v>0.04517133513098909</v>
       </c>
       <c r="J11">
-        <v>0.04868675461350316</v>
+        <v>0.0451713351309891</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>232.950485</v>
       </c>
       <c r="O11">
-        <v>0.8010804635798802</v>
+        <v>0.7247630712606724</v>
       </c>
       <c r="P11">
-        <v>0.8010804635798804</v>
+        <v>0.7247630712606724</v>
       </c>
       <c r="Q11">
-        <v>2167.301867312083</v>
+        <v>2012.663071589375</v>
       </c>
       <c r="R11">
-        <v>19505.71680580874</v>
+        <v>18113.96764430438</v>
       </c>
       <c r="S11">
-        <v>0.03900200795598498</v>
+        <v>0.03273851558248076</v>
       </c>
       <c r="T11">
-        <v>0.039002007955985</v>
+        <v>0.03273851558248077</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>27.91110566666667</v>
+        <v>25.919625</v>
       </c>
       <c r="H12">
-        <v>83.733317</v>
+        <v>77.758875</v>
       </c>
       <c r="I12">
-        <v>0.04868675461350316</v>
+        <v>0.04517133513098909</v>
       </c>
       <c r="J12">
-        <v>0.04868675461350316</v>
+        <v>0.0451713351309891</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.97997033333333</v>
+        <v>23.49767666666667</v>
       </c>
       <c r="N12">
-        <v>53.939911</v>
+        <v>70.49303</v>
       </c>
       <c r="O12">
-        <v>0.1854909592024995</v>
+        <v>0.2193201912641251</v>
       </c>
       <c r="P12">
-        <v>0.1854909592024996</v>
+        <v>0.2193201912641252</v>
       </c>
       <c r="Q12">
-        <v>501.8408518571985</v>
+        <v>609.05096757125</v>
       </c>
       <c r="R12">
-        <v>4516.567666714786</v>
+        <v>5481.458708141251</v>
       </c>
       <c r="S12">
-        <v>0.009030952813715418</v>
+        <v>0.009906985860584423</v>
       </c>
       <c r="T12">
-        <v>0.009030952813715422</v>
+        <v>0.009906985860584427</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>27.91110566666667</v>
+        <v>25.919625</v>
       </c>
       <c r="H13">
-        <v>83.733317</v>
+        <v>77.758875</v>
       </c>
       <c r="I13">
-        <v>0.04868675461350316</v>
+        <v>0.04517133513098909</v>
       </c>
       <c r="J13">
-        <v>0.04868675461350316</v>
+        <v>0.0451713351309891</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1285003333333333</v>
+        <v>4.714852</v>
       </c>
       <c r="N13">
-        <v>0.385501</v>
+        <v>14.144556</v>
       </c>
       <c r="O13">
-        <v>0.001325677943063769</v>
+        <v>0.04400699937662105</v>
       </c>
       <c r="P13">
-        <v>0.001325677943063769</v>
+        <v>0.04400699937662105</v>
       </c>
       <c r="Q13">
-        <v>3.586586381868555</v>
+        <v>122.2071957705</v>
       </c>
       <c r="R13">
-        <v>32.279277436817</v>
+        <v>1099.8647619345</v>
       </c>
       <c r="S13">
-        <v>6.454295671047933E-05</v>
+        <v>0.001987854916950578</v>
       </c>
       <c r="T13">
-        <v>6.454295671047935E-05</v>
+        <v>0.001987854916950578</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.9942943333333334</v>
+        <v>1.737961666666666</v>
       </c>
       <c r="H14">
-        <v>2.982883</v>
+        <v>5.213884999999999</v>
       </c>
       <c r="I14">
-        <v>0.001734397941763016</v>
+        <v>0.003028826570207414</v>
       </c>
       <c r="J14">
-        <v>0.001734397941763016</v>
+        <v>0.003028826570207415</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.173155666666666</v>
+        <v>1.275993666666667</v>
       </c>
       <c r="N14">
-        <v>3.519467</v>
+        <v>3.827981</v>
       </c>
       <c r="O14">
-        <v>0.01210289927455652</v>
+        <v>0.01190973809858134</v>
       </c>
       <c r="P14">
-        <v>0.01210289927455652</v>
+        <v>0.01190973809858134</v>
       </c>
       <c r="Q14">
-        <v>1.166462031484556</v>
+        <v>2.217628079576111</v>
       </c>
       <c r="R14">
-        <v>10.498158283361</v>
+        <v>19.958652716185</v>
       </c>
       <c r="S14">
-        <v>2.099124359115593E-05</v>
+        <v>3.607253119719468E-05</v>
       </c>
       <c r="T14">
-        <v>2.099124359115593E-05</v>
+        <v>3.607253119719469E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.9942943333333334</v>
+        <v>1.737961666666666</v>
       </c>
       <c r="H15">
-        <v>2.982883</v>
+        <v>5.213884999999999</v>
       </c>
       <c r="I15">
-        <v>0.001734397941763016</v>
+        <v>0.003028826570207414</v>
       </c>
       <c r="J15">
-        <v>0.001734397941763016</v>
+        <v>0.003028826570207415</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>232.950485</v>
       </c>
       <c r="O15">
-        <v>0.8010804635798802</v>
+        <v>0.7247630712606724</v>
       </c>
       <c r="P15">
-        <v>0.8010804635798804</v>
+        <v>0.7247630712606724</v>
       </c>
       <c r="Q15">
-        <v>77.2071157275839</v>
+        <v>134.9530043871361</v>
       </c>
       <c r="R15">
-        <v>694.864041548255</v>
+        <v>1214.577039484225</v>
       </c>
       <c r="S15">
-        <v>0.001389392307219507</v>
+        <v>0.002195181647339454</v>
       </c>
       <c r="T15">
-        <v>0.001389392307219507</v>
+        <v>0.002195181647339455</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.9942943333333334</v>
+        <v>1.737961666666666</v>
       </c>
       <c r="H16">
-        <v>2.982883</v>
+        <v>5.213884999999999</v>
       </c>
       <c r="I16">
-        <v>0.001734397941763016</v>
+        <v>0.003028826570207414</v>
       </c>
       <c r="J16">
-        <v>0.001734397941763016</v>
+        <v>0.003028826570207415</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.97997033333333</v>
+        <v>23.49767666666667</v>
       </c>
       <c r="N16">
-        <v>53.939911</v>
+        <v>70.49303</v>
       </c>
       <c r="O16">
-        <v>0.1854909592024995</v>
+        <v>0.2193201912641251</v>
       </c>
       <c r="P16">
-        <v>0.1854909592024996</v>
+        <v>0.2193201912641252</v>
       </c>
       <c r="Q16">
-        <v>17.87738261593478</v>
+        <v>40.83806130239444</v>
       </c>
       <c r="R16">
-        <v>160.896443543413</v>
+        <v>367.54255172155</v>
       </c>
       <c r="S16">
-        <v>0.0003217151378564627</v>
+        <v>0.0006642828226837542</v>
       </c>
       <c r="T16">
-        <v>0.0003217151378564628</v>
+        <v>0.0006642828226837544</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.9942943333333334</v>
+        <v>1.737961666666666</v>
       </c>
       <c r="H17">
-        <v>2.982883</v>
+        <v>5.213884999999999</v>
       </c>
       <c r="I17">
-        <v>0.001734397941763016</v>
+        <v>0.003028826570207414</v>
       </c>
       <c r="J17">
-        <v>0.001734397941763016</v>
+        <v>0.003028826570207415</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1285003333333333</v>
+        <v>4.714852</v>
       </c>
       <c r="N17">
-        <v>0.385501</v>
+        <v>14.144556</v>
       </c>
       <c r="O17">
-        <v>0.001325677943063769</v>
+        <v>0.04400699937662105</v>
       </c>
       <c r="P17">
-        <v>0.001325677943063769</v>
+        <v>0.04400699937662105</v>
       </c>
       <c r="Q17">
-        <v>0.1277671532647778</v>
+        <v>8.194232040006666</v>
       </c>
       <c r="R17">
-        <v>1.149904379383</v>
+        <v>73.74808836006</v>
       </c>
       <c r="S17">
-        <v>2.29925309589043E-06</v>
+        <v>0.000133289568987011</v>
       </c>
       <c r="T17">
-        <v>2.29925309589043E-06</v>
+        <v>0.000133289568987011</v>
       </c>
     </row>
   </sheetData>
